--- a/neumatic/data_load/numeracion.xlsx
+++ b/neumatic/data_load/numeracion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT_NEUMATIC_MIGRA\neumatic\data_load\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT_NEUMATIC\neumatic\data_load\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D656E4-3515-43AE-B82E-F2E3B52652E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F8FFAD-9EA9-4DC2-96FC-EB7116B74C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9C7CDCD7-07CE-4712-B4E8-D68AA005A8A3}"/>
   </bookViews>
@@ -300,7 +300,7 @@
       <name val="MS Shell Dlg 2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,6 +486,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -662,12 +668,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1025,7 +1033,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566DD4C6-E472-4C8E-BB58-53751169563F}">
   <dimension ref="A1:J221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2951,7 +2961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>4</v>
       </c>
@@ -2974,467 +2984,487 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>5</v>
-      </c>
-      <c r="B82" s="1" t="s">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>5</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="3">
         <v>25</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="3">
         <v>252500000000</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F82" s="1">
-        <v>11</v>
-      </c>
-      <c r="G82" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>5</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C83" s="1">
+      <c r="E82" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F82" s="3">
+        <v>11</v>
+      </c>
+      <c r="G82" s="3">
+        <v>2</v>
+      </c>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>5</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="3">
         <v>25</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="3">
         <v>252500000000</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F83" s="1">
-        <v>11</v>
-      </c>
-      <c r="G83" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>5</v>
-      </c>
-      <c r="B84" s="1" t="s">
+      <c r="E83" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F83" s="3">
+        <v>11</v>
+      </c>
+      <c r="G83" s="3">
+        <v>2</v>
+      </c>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>5</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="3">
         <v>25</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84" s="3">
         <v>252500000000</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F84" s="1">
-        <v>11</v>
-      </c>
-      <c r="G84" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>5</v>
-      </c>
-      <c r="B85" s="1" t="s">
+      <c r="E84" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F84" s="3">
+        <v>11</v>
+      </c>
+      <c r="G84" s="3">
+        <v>2</v>
+      </c>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>5</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="3">
         <v>25</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="3">
         <v>252500000000</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F85" s="1">
-        <v>11</v>
-      </c>
-      <c r="G85" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>5</v>
-      </c>
-      <c r="B86" s="1" t="s">
+      <c r="E85" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" s="3">
+        <v>11</v>
+      </c>
+      <c r="G85" s="3">
+        <v>2</v>
+      </c>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>5</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="3">
         <v>25</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="3">
         <v>252500000000</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F86" s="1">
-        <v>11</v>
-      </c>
-      <c r="G86" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>5</v>
-      </c>
-      <c r="B87" s="1" t="s">
+      <c r="E86" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86" s="3">
+        <v>11</v>
+      </c>
+      <c r="G86" s="3">
+        <v>2</v>
+      </c>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>5</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="3">
         <v>25</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="3">
         <v>252500000000</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F87" s="1">
-        <v>11</v>
-      </c>
-      <c r="G87" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>5</v>
-      </c>
-      <c r="B88" s="1" t="s">
+      <c r="E87" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87" s="3">
+        <v>11</v>
+      </c>
+      <c r="G87" s="3">
+        <v>2</v>
+      </c>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>5</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="3">
         <v>25</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="3">
         <v>1400016159</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F88" s="1">
-        <v>11</v>
-      </c>
-      <c r="G88" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>5</v>
-      </c>
-      <c r="B89" s="1" t="s">
+      <c r="F88" s="3">
+        <v>11</v>
+      </c>
+      <c r="G88" s="3">
+        <v>2</v>
+      </c>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>5</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="3">
         <v>25</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="3">
         <v>252500000000</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F89" s="1">
-        <v>11</v>
-      </c>
-      <c r="G89" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>5</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C90" s="1">
+      <c r="E89" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F89" s="3">
+        <v>11</v>
+      </c>
+      <c r="G89" s="3">
+        <v>2</v>
+      </c>
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>5</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="3">
         <v>25</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="3">
         <v>252500000000</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F90" s="1">
-        <v>11</v>
-      </c>
-      <c r="G90" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>5</v>
-      </c>
-      <c r="B91" s="1" t="s">
+      <c r="E90" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F90" s="3">
+        <v>11</v>
+      </c>
+      <c r="G90" s="3">
+        <v>2</v>
+      </c>
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>5</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="3">
         <v>25</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="3">
         <v>252500000000</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F91" s="1">
-        <v>11</v>
-      </c>
-      <c r="G91" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>5</v>
-      </c>
-      <c r="B92" s="1" t="s">
+      <c r="E91" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F91" s="3">
+        <v>11</v>
+      </c>
+      <c r="G91" s="3">
+        <v>2</v>
+      </c>
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>5</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="3">
         <v>25</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="3">
         <v>252500000000</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F92" s="1">
-        <v>11</v>
-      </c>
-      <c r="G92" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>5</v>
-      </c>
-      <c r="B93" s="1" t="s">
+      <c r="E92" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92" s="3">
+        <v>11</v>
+      </c>
+      <c r="G92" s="3">
+        <v>2</v>
+      </c>
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>5</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="3">
         <v>25</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93" s="3">
         <v>252500000000</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F93" s="1">
-        <v>11</v>
-      </c>
-      <c r="G93" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>5</v>
-      </c>
-      <c r="B94" s="1" t="s">
+      <c r="E93" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F93" s="3">
+        <v>11</v>
+      </c>
+      <c r="G93" s="3">
+        <v>2</v>
+      </c>
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>5</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="3">
         <v>25</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94" s="3">
         <v>252500000000</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="1">
-        <v>11</v>
-      </c>
-      <c r="G94" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>5</v>
-      </c>
-      <c r="B95" s="1" t="s">
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
+        <v>11</v>
+      </c>
+      <c r="G94" s="3">
+        <v>2</v>
+      </c>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>5</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="3">
         <v>25</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95" s="3">
         <v>500000000</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F95" s="1">
-        <v>11</v>
-      </c>
-      <c r="G95" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>5</v>
-      </c>
-      <c r="B96" s="1" t="s">
+      <c r="E95" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95" s="3">
+        <v>11</v>
+      </c>
+      <c r="G95" s="3">
+        <v>2</v>
+      </c>
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>5</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="3">
         <v>25</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="3">
         <v>252500000000</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F96" s="1">
-        <v>11</v>
-      </c>
-      <c r="G96" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>5</v>
-      </c>
-      <c r="B97" s="1" t="s">
+      <c r="E96" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96" s="3">
+        <v>11</v>
+      </c>
+      <c r="G96" s="3">
+        <v>2</v>
+      </c>
+      <c r="H96" s="4"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>5</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="3">
         <v>25</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97" s="3">
         <v>252500000000</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F97" s="1">
-        <v>11</v>
-      </c>
-      <c r="G97" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>5</v>
-      </c>
-      <c r="B98" s="1" t="s">
+      <c r="E97" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" s="3">
+        <v>11</v>
+      </c>
+      <c r="G97" s="3">
+        <v>2</v>
+      </c>
+      <c r="H97" s="4"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>5</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="3">
         <v>25</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98" s="3">
         <v>500000568</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F98" s="1">
-        <v>11</v>
-      </c>
-      <c r="G98" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>5</v>
-      </c>
-      <c r="B99" s="1" t="s">
+      <c r="E98" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98" s="3">
+        <v>11</v>
+      </c>
+      <c r="G98" s="3">
+        <v>2</v>
+      </c>
+      <c r="H98" s="4"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>5</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="3">
         <v>25</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99" s="3">
         <v>500000000</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F99" s="1">
-        <v>11</v>
-      </c>
-      <c r="G99" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>5</v>
-      </c>
-      <c r="B100" s="1" t="s">
+      <c r="E99" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F99" s="3">
+        <v>11</v>
+      </c>
+      <c r="G99" s="3">
+        <v>2</v>
+      </c>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>5</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="3">
         <v>25</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="3">
         <v>500026725</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F100" s="1">
-        <v>11</v>
-      </c>
-      <c r="G100" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>5</v>
-      </c>
-      <c r="B101" s="1" t="s">
+      <c r="E100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F100" s="3">
+        <v>11</v>
+      </c>
+      <c r="G100" s="3">
+        <v>2</v>
+      </c>
+      <c r="H100" s="4"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>5</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="3">
         <v>25</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F101" s="1">
-        <v>11</v>
-      </c>
-      <c r="G101" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" s="3">
+        <v>11</v>
+      </c>
+      <c r="G101" s="3">
+        <v>2</v>
+      </c>
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>6</v>
       </c>
@@ -3457,7 +3487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>6</v>
       </c>
@@ -3480,7 +3510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>6</v>
       </c>
@@ -3503,7 +3533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>6</v>
       </c>
@@ -3526,7 +3556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>6</v>
       </c>
@@ -3549,7 +3579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>6</v>
       </c>
@@ -3572,7 +3602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>6</v>
       </c>
@@ -3595,7 +3625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>6</v>
       </c>
@@ -3618,7 +3648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>6</v>
       </c>
@@ -3641,7 +3671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>6</v>
       </c>
@@ -3664,7 +3694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>6</v>
       </c>
